--- a/dev_projects/automatic_differentiation/three_stage.xlsx
+++ b/dev_projects/automatic_differentiation/three_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/sprdi_dtu_dk/Documents/Srinivas/Meanline_code/turboflow/dev_projects/automatic_differentiation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7F6DEC61-BC01-46BC-A641-03987F54B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E859B40E-33CB-4E71-AE91-4AC98CE8C702}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{7F6DEC61-BC01-46BC-A641-03987F54B8A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3805D16A-6C38-4EBF-958E-335DB6373A2C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{B7795CC5-05AD-4091-9D1B-1A770CAE4322}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{B7795CC5-05AD-4091-9D1B-1A770CAE4322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,6 +205,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -527,18 +531,19 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>61</v>
       </c>
@@ -592,10 +597,10 @@
         <v>1E-8</v>
       </c>
       <c r="I2" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>62</v>
       </c>
@@ -622,10 +627,10 @@
         <v>1E-8</v>
       </c>
       <c r="I3" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>63</v>
       </c>
@@ -652,10 +657,10 @@
         <v>1E-8</v>
       </c>
       <c r="I4" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>64</v>
       </c>
@@ -682,10 +687,10 @@
         <v>1E-8</v>
       </c>
       <c r="I5" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>65</v>
       </c>
@@ -712,10 +717,10 @@
         <v>1E-8</v>
       </c>
       <c r="I6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>66</v>
       </c>
@@ -740,10 +745,10 @@
         <v>1E-8</v>
       </c>
       <c r="I7" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>67</v>
       </c>
@@ -770,10 +775,10 @@
         <v>1E-8</v>
       </c>
       <c r="I8" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>68</v>
       </c>
@@ -800,10 +805,10 @@
         <v>1E-8</v>
       </c>
       <c r="I9" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>69</v>
       </c>
@@ -830,10 +835,10 @@
         <v>1E-8</v>
       </c>
       <c r="I10" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>70</v>
       </c>
@@ -860,10 +865,10 @@
         <v>1E-8</v>
       </c>
       <c r="I11" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>71</v>
       </c>
@@ -888,10 +893,10 @@
         <v>1E-8</v>
       </c>
       <c r="I12" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>72</v>
       </c>
@@ -918,10 +923,10 @@
         <v>1E-8</v>
       </c>
       <c r="I13" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>73</v>
       </c>
@@ -948,10 +953,10 @@
         <v>1E-8</v>
       </c>
       <c r="I14" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>74</v>
       </c>
@@ -978,10 +983,10 @@
         <v>1E-8</v>
       </c>
       <c r="I15" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>75</v>
       </c>
@@ -1008,10 +1013,10 @@
         <v>1E-8</v>
       </c>
       <c r="I16" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>76</v>
       </c>
@@ -1035,10 +1040,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I17" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>77</v>
       </c>
@@ -1065,10 +1070,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I18" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>78</v>
       </c>
@@ -1095,10 +1100,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I19" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>79</v>
       </c>
@@ -1125,10 +1130,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I20" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>80</v>
       </c>
@@ -1155,10 +1160,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I21" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>81</v>
       </c>
@@ -1182,10 +1187,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I22" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>82</v>
       </c>
@@ -1212,10 +1217,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I23" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>83</v>
       </c>
@@ -1242,10 +1247,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I24" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>84</v>
       </c>
@@ -1272,10 +1277,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I25" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>85</v>
       </c>
@@ -1302,10 +1307,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I26" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>86</v>
       </c>
@@ -1329,10 +1334,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I27" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>87</v>
       </c>
@@ -1359,10 +1364,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I28" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>88</v>
       </c>
@@ -1389,10 +1394,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I29" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <v>89</v>
       </c>
@@ -1419,10 +1424,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I30" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <v>90</v>
       </c>
@@ -1449,7 +1454,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I31" s="9">
-        <v>5</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
